--- a/biology/Zoologie/Dendrolagus_lumholtzi/Dendrolagus_lumholtzi.xlsx
+++ b/biology/Zoologie/Dendrolagus_lumholtzi/Dendrolagus_lumholtzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dendrolague de Lumholtz (Dendrolagus lumholtzi ; en anglais : the Lumholtz's Tree-kangaroo) est un kangourou arboricole trouvé dans le Queensland, en Australie.
 Il doit son nom à l'explorateur norvégien Carl Sofus Lumholtz (1851-1922).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec une longueur tête-queue comprise entre 48 et 65 cm, une longue queue de 60 à 74 cm non préhensile et un poids moyen de 7,2 kg (3.7 à 10 kg) pour les mâles et de 5,9 kg (5.2 à 7 kg) pour les femelles, c'est le plus petit des kangourous arboricoles.
 Il a des membres puissants, avec de fortes griffes aux pattes avant, une fourrure grise et courte. Son museau, ses pieds et l'extrémité de la queue sont noirs.
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts tropicales humides de la région du plateau d'Atherton, à plus de 300 m d'altitude, au nord du Queensland.
 </t>
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de feuilles et de fruits.
 </t>
@@ -606,7 +624,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal solitaire, nocturne qui passe 99 % de son temps au sommet des arbres, dans la canopée. Il peut faire des bonds de 3 à 6 m entre deux branches en utilisant sa queue comme gouvernail. En cas de danger, il peut se laisser tomber d'une hauteur de 15 à 18 m sur le sol sans se blesser
 </t>
@@ -637,7 +657,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne semble pas y avoir de saison des amours particulières. Il n'y a qu'un petit par portée
 </t>
